--- a/Assets/06.Table/CostumeSpecialAbility.xlsx
+++ b/Assets/06.Table/CostumeSpecialAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49096F1-8577-4C1D-9DAF-DF4B8BBE8126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F4DCD-ADE6-4A5C-B2E1-D037A906522F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeSpecialAbility" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>용인 특수 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락 특수 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -916,6 +928,33 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>114</v>
+      </c>
+      <c r="D15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="2">E14</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/CostumeSpecialAbility.xlsx
+++ b/Assets/06.Table/CostumeSpecialAbility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F4DCD-ADE6-4A5C-B2E1-D037A906522F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BE5735-8E78-46FA-9E24-8D6EA457E0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeSpecialAbility" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>극락 특수 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업화 특수 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,6 +963,33 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="3">E15</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
